--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/SOUTH_CAROLINA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/SOUTH_CAROLINA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1216"/>
+  <dimension ref="A1:D1210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -490,13 +490,13 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C10">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C27">
@@ -771,14 +771,14 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C30">
         <v>8</v>
       </c>
       <c r="D30">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="31">
@@ -791,13 +791,13 @@
         <v>8</v>
       </c>
       <c r="D31">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C32">
@@ -817,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="D33">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="34">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C37">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C41">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C58">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C70">
@@ -1304,7 +1304,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C71">
@@ -1454,7 +1454,7 @@
         <v>8</v>
       </c>
       <c r="D82">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="83">
@@ -1673,7 +1673,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C99">
@@ -1886,7 +1886,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C115">
@@ -1995,7 +1995,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2052,7 +2052,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C127">
@@ -2343,7 +2343,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C149">
@@ -2356,7 +2356,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C150">
@@ -2408,12 +2408,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C154">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C157">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C158">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C161">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C174">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C177">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C185">
@@ -2901,7 +2901,7 @@
         <v>8</v>
       </c>
       <c r="D191">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="192">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C194">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C195">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C196">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C204">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C212">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C216">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C217">
@@ -3252,7 +3252,7 @@
         <v>8</v>
       </c>
       <c r="D218">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="219">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C227">
@@ -3380,7 +3380,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C228">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C229">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C236">
@@ -3536,7 +3536,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C240">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C250">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C252">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C254">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C256">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C257">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C261">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C266">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C269">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C273">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C275">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C276">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C279">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C281">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C284">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C285">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C289">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C295">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C296">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C298">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C300">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C314">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C316">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C318">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C320">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C323">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C335">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C340">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C345">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C349">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C352">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C355">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C361">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C362">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C363">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C364">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C366">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C367">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C370">
@@ -5256,7 +5256,7 @@
         <v>8</v>
       </c>
       <c r="D371">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="372">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C375">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C376">
@@ -5366,14 +5366,14 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C380">
         <v>8</v>
       </c>
       <c r="D380">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="381">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C382">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C383">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C384">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C390">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C391">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C394">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C401">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C411">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C415">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C419">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C425">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C426">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C427">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C429">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C432">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C435">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C436">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C438">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C439">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C443">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C446">
@@ -7027,7 +7027,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C507">
@@ -7305,7 +7305,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C528">
@@ -7435,7 +7435,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C538">
@@ -7487,7 +7487,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C542">
@@ -7622,7 +7622,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C552">
@@ -7764,7 +7764,7 @@
         <v>8</v>
       </c>
       <c r="D562">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="563">
@@ -7835,7 +7835,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C568">
@@ -7874,7 +7874,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C571">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C575">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C580">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C582">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C584">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C585">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C586">
@@ -8100,20 +8100,20 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C588">
         <v>8</v>
       </c>
       <c r="D588">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C589">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C595">
@@ -8230,14 +8230,14 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C598">
         <v>8</v>
       </c>
       <c r="D598">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="599">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C604">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C606">
@@ -8386,7 +8386,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C610">
@@ -8490,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C618">
@@ -8542,7 +8542,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C622">
@@ -8594,7 +8594,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C626">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C632">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C634">
@@ -9179,7 +9179,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C671">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C679">
@@ -9517,7 +9517,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C697">
@@ -9576,7 +9576,7 @@
         <v>8</v>
       </c>
       <c r="D701">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="702">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C712">
@@ -9764,7 +9764,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C716">
@@ -10135,7 +10135,7 @@
         <v>8</v>
       </c>
       <c r="D744">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="745">
@@ -10271,7 +10271,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C755">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C767">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C768">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C769">
@@ -10466,7 +10466,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C770">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C772">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C773">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C774">
@@ -10557,7 +10557,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C777">
@@ -10570,7 +10570,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C778">
@@ -10596,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C780">
@@ -10609,7 +10609,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C781">
@@ -10757,7 +10757,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C792">
@@ -10796,7 +10796,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C795">
@@ -10952,7 +10952,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C807">
@@ -11134,14 +11134,14 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C821">
         <v>8</v>
       </c>
       <c r="D821">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="822">
@@ -11212,7 +11212,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C827">
@@ -11277,7 +11277,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C832">
@@ -11420,7 +11420,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C843">
@@ -11433,7 +11433,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C844">
@@ -11446,7 +11446,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C845">
@@ -11472,7 +11472,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C847">
@@ -11550,7 +11550,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C853">
@@ -11615,7 +11615,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C858">
@@ -11784,7 +11784,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C871">
@@ -11830,7 +11830,7 @@
         <v>8</v>
       </c>
       <c r="D874">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="875">
@@ -11919,7 +11919,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C881">
@@ -11945,7 +11945,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C883">
@@ -11997,7 +11997,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C887">
@@ -12010,7 +12010,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C888">
@@ -12036,7 +12036,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C890">
@@ -12062,7 +12062,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C892">
@@ -12196,7 +12196,7 @@
         <v>8</v>
       </c>
       <c r="D901">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="902">
@@ -12215,7 +12215,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C903">
@@ -12228,7 +12228,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C904">
@@ -12306,7 +12306,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C910">
@@ -12423,14 +12423,14 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C919">
         <v>8</v>
       </c>
       <c r="D919">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="920">
@@ -12462,7 +12462,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C922">
@@ -12514,7 +12514,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C926">
@@ -12540,7 +12540,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C928">
@@ -12644,7 +12644,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C936">
@@ -12657,7 +12657,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C937">
@@ -12670,7 +12670,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C938">
@@ -12683,7 +12683,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C939">
@@ -13101,7 +13101,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C970">
@@ -13444,7 +13444,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C996">
@@ -13592,7 +13592,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1007">
@@ -13631,7 +13631,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1010">
@@ -13644,7 +13644,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1011">
@@ -13670,7 +13670,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1013">
@@ -13683,7 +13683,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1014">
@@ -13844,7 +13844,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1026">
@@ -13896,7 +13896,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1030">
@@ -14013,7 +14013,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1039">
@@ -14039,7 +14039,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1041">
@@ -14091,7 +14091,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1045">
@@ -14273,7 +14273,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1059">
@@ -14286,7 +14286,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1060">
@@ -14468,7 +14468,7 @@
     <row r="1074">
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1074">
@@ -14481,7 +14481,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1075">
@@ -14520,7 +14520,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1078">
@@ -14533,7 +14533,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1079">
@@ -14546,20 +14546,20 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1080">
         <v>8</v>
       </c>
       <c r="D1080">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1081">
@@ -14676,7 +14676,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1090">
@@ -14728,14 +14728,14 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1094">
         <v>8</v>
       </c>
       <c r="D1094">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="1095">
@@ -14780,7 +14780,7 @@
     <row r="1098">
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1098">
@@ -14819,7 +14819,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1101">
@@ -14962,7 +14962,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1112">
@@ -14995,7 +14995,7 @@
         <v>8</v>
       </c>
       <c r="D1114">
-        <v>0.0009941593140300733</v>
+        <v>0.0009941593140300731</v>
       </c>
     </row>
     <row r="1115">
@@ -15014,7 +15014,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1116">
@@ -15027,7 +15027,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1117">
@@ -15066,7 +15066,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1120">
@@ -15170,7 +15170,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1128">
@@ -15222,7 +15222,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1132">
@@ -15625,7 +15625,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1163">
@@ -15755,7 +15755,7 @@
     <row r="1173">
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1173">
@@ -16012,7 +16012,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1192">
@@ -16025,7 +16025,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1193">
@@ -16129,7 +16129,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1201">
@@ -16155,7 +16155,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1203">
@@ -16254,41 +16254,6 @@
       </c>
       <c r="D1210">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
